--- a/data/trans_bre/P1417-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1417-Provincia-trans_bre.xlsx
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.345838978045491</v>
+        <v>-2.3537394720424</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5197395089233005</v>
+        <v>0.80260704594636</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4573901337110639</v>
+        <v>-0.2549795830021279</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.457131604617815</v>
+        <v>1.352358177350979</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.2611900029777138</v>
+        <v>-0.2531924996224148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6562348774353688</v>
+        <v>-0.627367772916266</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.5357610863265145</v>
+        <v>0.2393279492020896</v>
       </c>
     </row>
     <row r="6">
@@ -690,22 +690,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8254286042868831</v>
+        <v>0.8281765310456858</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.239687888714426</v>
+        <v>5.584901954965814</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.451519031634979</v>
+        <v>4.666908019685647</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.962550970181212</v>
+        <v>6.771132077897706</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>17.56918752355719</v>
+        <v>16.72602168488805</v>
       </c>
     </row>
     <row r="7">
@@ -743,7 +743,7 @@
         <v>-0.002444173125929636</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3.914375565065489</v>
+        <v>3.91437556506549</v>
       </c>
     </row>
     <row r="8">
@@ -754,24 +754,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.532752195376197</v>
+        <v>0.4367759839497042</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9916917042387422</v>
+        <v>0.9781221455983539</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.223635355941704</v>
+        <v>-1.206863120527825</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.497867679966151</v>
+        <v>1.536327388922134</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.8562603447836517</v>
+        <v>-0.8814454495965988</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6648286522048918</v>
+        <v>0.6507317324926174</v>
       </c>
     </row>
     <row r="9">
@@ -782,24 +782,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.441391962154159</v>
+        <v>3.33603774509033</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.607321707716229</v>
+        <v>3.499209126867885</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.07479557952598</v>
+        <v>1.082331243618683</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.486811044509084</v>
+        <v>4.648152734405842</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>4.811267848235227</v>
+        <v>4.436404992146706</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>19.20598715978865</v>
+        <v>17.18246001807831</v>
       </c>
     </row>
     <row r="10">
@@ -823,7 +823,7 @@
         <v>1.739392369316472</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.237534381982414</v>
+        <v>2.237534381982413</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -848,24 +848,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2718069025753321</v>
+        <v>0.2711291759352453</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3725001919075894</v>
+        <v>-0.3298296199551359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5597473569183175</v>
+        <v>0.5130221518916904</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4747284538686669</v>
+        <v>0.6272721143088873</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="n">
-        <v>-0.7021192798105044</v>
-      </c>
+      <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>0.1393155796617306</v>
+        <v>0.1566141875584007</v>
       </c>
     </row>
     <row r="12">
@@ -876,22 +874,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.343411405036163</v>
+        <v>2.349791110285287</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.092465240473802</v>
+        <v>3.087892340167481</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.705488139906753</v>
+        <v>3.712071940778459</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.989107684533948</v>
+        <v>3.939418279088487</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>8.014846484875347</v>
+        <v>6.835987009368608</v>
       </c>
     </row>
     <row r="13">
@@ -915,7 +913,7 @@
         <v>2.746188285006256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.14345472261128</v>
+        <v>3.143454722611281</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>3.666763456774975</v>
@@ -929,7 +927,7 @@
         <v>2.571079869350806</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>2.468159052391962</v>
+        <v>2.468159052391963</v>
       </c>
     </row>
     <row r="14">
@@ -940,24 +938,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.057177058501002</v>
+        <v>-0.2708801361815533</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.404776454339522</v>
+        <v>2.310773679508358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7152508254791713</v>
+        <v>0.7238416313248048</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.348828207858613</v>
+        <v>1.430467009447349</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>0.04830164308448689</v>
+        <v>0.03400883049436192</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5505897483007869</v>
+        <v>0.4928312687974239</v>
       </c>
     </row>
     <row r="15">
@@ -968,24 +966,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.204124322526786</v>
+        <v>2.209827866939044</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.595279309088328</v>
+        <v>6.504728646035483</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.177492671482012</v>
+        <v>5.026869732304496</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.223826581482764</v>
+        <v>5.496042271102682</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>11.51324086051817</v>
+        <v>12.95216745809018</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8.079767422998417</v>
+        <v>8.74704678448091</v>
       </c>
     </row>
     <row r="16">
@@ -1009,7 +1007,7 @@
         <v>2.348320069206821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.773896978036224</v>
+        <v>2.773896978036223</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>6.702445109720997</v>
@@ -1021,7 +1019,7 @@
         <v>5.090789549425042</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>5.477793044938471</v>
+        <v>5.47779304493847</v>
       </c>
     </row>
     <row r="17">
@@ -1032,24 +1030,24 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5619397610668241</v>
+        <v>0.7150090488638392</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7462205790780212</v>
+        <v>0.5416318539757672</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4029817135953297</v>
+        <v>0.4484943679352578</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.24480257482485</v>
+        <v>1.209956572010429</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.1378293802656788</v>
+        <v>-0.06493846044214073</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>0.3007220342098355</v>
+        <v>0.2776490272933735</v>
       </c>
     </row>
     <row r="18">
@@ -1060,20 +1058,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.719256022456406</v>
+        <v>6.136639791799651</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.025706107438012</v>
+        <v>8.613046221046892</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.263313080955291</v>
+        <v>5.424214499454046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.671404950168002</v>
+        <v>4.628132470957913</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>14.81029249279956</v>
+        <v>18.16328996092601</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="inlineStr"/>
@@ -1124,24 +1122,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3648449946130165</v>
+        <v>0.3641628796657767</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.4029895596465193</v>
+        <v>-0.4280556503583165</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.211404532770692</v>
+        <v>-1.275617280797362</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.7683318321632471</v>
+        <v>-0.8621144067614469</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.193761144225358</v>
+        <v>-0.1936147689763216</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1148,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.170573466005135</v>
+        <v>2.943013973134617</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.228995242897762</v>
+        <v>3.219583044099737</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.660660395179623</v>
+        <v>2.982635958546897</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.742210045298553</v>
+        <v>4.420324798418712</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>1.985165240522501</v>
+        <v>1.785220913649123</v>
       </c>
     </row>
     <row r="22">
@@ -1191,7 +1187,7 @@
         <v>2.652241872113719</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.053907015510791</v>
+        <v>7.053907015510793</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>3.256724848070564</v>
@@ -1203,7 +1199,7 @@
         <v>6.462817852851851</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3.44322127760159</v>
+        <v>3.443221277601591</v>
       </c>
     </row>
     <row r="23">
@@ -1214,28 +1210,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6611343021920935</v>
+        <v>0.7445158110948555</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.465744349191604</v>
+        <v>1.354162534479138</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.407434966133916</v>
+        <v>1.343287276261103</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.097656233098136</v>
+        <v>5.036708705698426</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2696425665472935</v>
+        <v>0.4249882146024622</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.681119102964949</v>
+        <v>1.117211068974609</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.186532026447028</v>
+        <v>0.8463253187240315</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1.693472389907564</v>
+        <v>1.647113052391282</v>
       </c>
     </row>
     <row r="24">
@@ -1246,26 +1242,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.615469839816536</v>
+        <v>3.637764627064484</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.341586451696418</v>
+        <v>4.244057070028952</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.235603258893139</v>
+        <v>4.266888254610765</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.312723902002809</v>
+        <v>9.230681791918046</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>16.5409194369789</v>
+        <v>18.04361358545063</v>
       </c>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="n">
-        <v>27.39519418404382</v>
+        <v>28.81872600742834</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>7.03678198488714</v>
+        <v>7.962949245374594</v>
       </c>
     </row>
     <row r="25">
@@ -1301,7 +1297,7 @@
         <v>18.58094869173069</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>3.017024216641833</v>
+        <v>3.017024216641834</v>
       </c>
     </row>
     <row r="26">
@@ -1312,26 +1308,26 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.04404248818745613</v>
+        <v>-0.03226988362317752</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4665685218564355</v>
+        <v>0.4835259314246428</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.35846713162035</v>
+        <v>1.443931898356384</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2705628707970546</v>
+        <v>0.2682908477985425</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1975303497303934</v>
+        <v>-0.2179989359137581</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2567723892294075</v>
+        <v>0.1867348238939015</v>
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>0.03807657661643352</v>
+        <v>-0.1069644320814572</v>
       </c>
     </row>
     <row r="27">
@@ -1342,26 +1338,26 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.098887640334431</v>
+        <v>2.168380822589786</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.763191534282073</v>
+        <v>2.745923638165884</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.76782444452687</v>
+        <v>3.839594437504242</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.047901795287432</v>
+        <v>2.073676211076845</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7.578613960231069</v>
+        <v>8.641103718156817</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>13.85663432196242</v>
+        <v>14.31185568932543</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>14.47648640618288</v>
+        <v>17.56530284765725</v>
       </c>
     </row>
     <row r="28">
@@ -1385,7 +1381,7 @@
         <v>1.888347642645156</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3.278252453610689</v>
+        <v>3.278252453610688</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>3.148128375916508</v>
@@ -1408,28 +1404,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8119718114070827</v>
+        <v>0.8405821556961707</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.735864528242174</v>
+        <v>1.694770998102368</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.375393301226235</v>
+        <v>1.310527413469721</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.540551168639907</v>
+        <v>2.662635283996269</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>1.180677324601156</v>
+        <v>1.15336121304535</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>2.600635867390532</v>
+        <v>2.776911976092682</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.72601520016717</v>
+        <v>1.695958257402687</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>1.657798836135069</v>
+        <v>1.729301931177508</v>
       </c>
     </row>
     <row r="30">
@@ -1440,28 +1436,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.867052760272104</v>
+        <v>1.809896593570369</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.924141201119448</v>
+        <v>2.919269294735913</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.521076585986389</v>
+        <v>2.490446876032134</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.919413257231953</v>
+        <v>3.975249397797525</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7.390043603253314</v>
+        <v>6.83957813070254</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>9.922545059143879</v>
+        <v>10.33972202514897</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6.532053525683754</v>
+        <v>6.43470798260547</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3.929201962107613</v>
+        <v>3.899330030885322</v>
       </c>
     </row>
     <row r="31">
